--- a/data/trans_orig/P74B2S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{338B3381-1EB9-4622-AF6D-F1D35CCBF6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF015A9-4F18-4DBE-B5D7-79DE48D90DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F4A9CBE-C439-47BC-8037-176D1983ECEC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A15C1F1-78A6-4551-B4BE-1C6794F343CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 2 en 2012 (Tasa respuesta: 5,52%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>53,67%</t>
+    <t>53,68%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>37,54%</t>
+    <t>43,34%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -98,13 +98,13 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>56,09%</t>
+    <t>49,01%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>32,15%</t>
+    <t>39,54%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -131,13 +131,13 @@
     <t>74,0%</t>
   </si>
   <si>
-    <t>35,1%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>50,85%</t>
+    <t>50,56%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -146,49 +146,49 @@
     <t>4,62%</t>
   </si>
   <si>
-    <t>28,32%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>20,82%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -200,358 +200,361 @@
     <t>90,59%</t>
   </si>
   <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>12,19%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -560,31 +563,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,93%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -999,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD9835E-38A6-4892-A95B-DBBCCAC31A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37776FE2-641C-4D6B-A47D-700941D32654}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,13 +1796,13 @@
         <v>17605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -1805,13 +1811,13 @@
         <v>70746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1820,13 +1826,13 @@
         <v>88351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,7 +1888,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1894,13 +1900,13 @@
         <v>1948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -1909,13 +1915,13 @@
         <v>6343</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1924,13 +1930,13 @@
         <v>8291</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1951,13 @@
         <v>2154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -1960,13 +1966,13 @@
         <v>8066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -1975,13 +1981,13 @@
         <v>10220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +2002,13 @@
         <v>1085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2017,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2026,13 +2032,13 @@
         <v>1085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2053,13 @@
         <v>15149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2062,13 +2068,13 @@
         <v>48587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -2077,13 +2083,13 @@
         <v>63736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2145,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2157,13 @@
         <v>5203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2166,13 +2172,13 @@
         <v>1913</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2181,13 +2187,13 @@
         <v>7115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2208,13 @@
         <v>986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2217,13 +2223,13 @@
         <v>15562</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2232,13 +2238,13 @@
         <v>16548</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2274,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2289,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>12178</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H27" s="7">
         <v>76</v>
@@ -2319,13 +2325,13 @@
         <v>77823</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M27" s="7">
         <v>86</v>
@@ -2334,13 +2340,13 @@
         <v>90002</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2414,13 @@
         <v>12584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2423,13 +2429,13 @@
         <v>20664</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2438,13 +2444,13 @@
         <v>33248</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2465,13 @@
         <v>5375</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -2474,13 +2480,13 @@
         <v>41853</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -2489,13 +2495,13 @@
         <v>47228</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2516,13 @@
         <v>3260</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2531,7 +2537,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2540,13 +2546,13 @@
         <v>3260</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>70291</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
         <v>228</v>
@@ -2576,13 +2582,13 @@
         <v>244812</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>287</v>
@@ -2591,13 +2597,13 @@
         <v>315103</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2659,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF015A9-4F18-4DBE-B5D7-79DE48D90DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2075D84F-585F-402F-B4D2-CAB8B38FCD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A15C1F1-78A6-4551-B4BE-1C6794F343CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2EED949-5CD6-4824-AEBC-09CD403DA23C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -83,13 +83,13 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>53,68%</t>
+    <t>54,04%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>43,34%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -98,463 +98,463 @@
     <t>11,97%</t>
   </si>
   <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -563,34 +563,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1005,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37776FE2-641C-4D6B-A47D-700941D32654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC80441-FCCE-47D2-B852-A3489D66E2B3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
